--- a/output/StructureDefinition-PADI-HealthcareAgentAuthority.xlsx
+++ b/output/StructureDefinition-PADI-HealthcareAgentAuthority.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="321">
   <si>
     <t>Path</t>
   </si>
@@ -401,6 +401,9 @@
     <t>The Consent Directive that is pointed to might be in various lifecycle states, e.g., a revoked Consent Directive.</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -683,6 +686,14 @@
     <t>Might be a unique identifier of a policy set in XACML, or other rules engine.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="75786-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Regulatory policy examples.</t>
   </si>
   <si>
@@ -818,6 +829,14 @@
     <t>How the individual is involved in the resources content that is described in the exception.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-RoleClass"/&gt;
+    &lt;code value="AGNT"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>How an actor is involved in the consent considerations.</t>
   </si>
   <si>
@@ -827,7 +846,7 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Group|CareTeam|Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-HealthcareAgent)
 </t>
   </si>
   <si>
@@ -1875,7 +1894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>79</v>
       </c>
@@ -1885,13 +1904,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>40</v>
@@ -2479,7 +2498,7 @@
         <v>40</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>40</v>
@@ -2494,13 +2513,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2533,21 +2552,21 @@
         <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2570,13 +2589,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2603,13 +2622,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2627,7 +2646,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>51</v>
@@ -2656,7 +2675,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2679,13 +2698,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2712,13 +2731,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2736,7 +2755,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>51</v>
@@ -2751,21 +2770,21 @@
         <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2773,13 +2792,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -2788,16 +2807,16 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2847,7 +2866,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2862,21 +2881,21 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2890,7 +2909,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -2899,16 +2918,16 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2958,7 +2977,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2973,25 +2992,25 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3010,16 +3029,16 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3069,7 +3088,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3084,25 +3103,25 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3121,13 +3140,13 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3178,7 +3197,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3193,7 +3212,7 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -3202,12 +3221,12 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3230,16 +3249,16 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3289,7 +3308,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3307,7 +3326,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3318,7 +3337,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3341,13 +3360,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3398,7 +3417,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3427,7 +3446,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3453,10 +3472,10 @@
         <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3507,7 +3526,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3528,7 +3547,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3536,7 +3555,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3565,7 +3584,7 @@
         <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>100</v>
@@ -3618,7 +3637,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3639,7 +3658,7 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3647,11 +3666,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3673,10 +3692,10 @@
         <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>100</v>
@@ -3731,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3760,7 +3779,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3786,10 +3805,10 @@
         <v>65</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3840,7 +3859,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3849,7 +3868,7 @@
         <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>63</v>
@@ -3869,7 +3888,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3895,13 +3914,13 @@
         <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3951,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3960,7 +3979,7 @@
         <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>63</v>
@@ -3980,7 +3999,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4003,19 +4022,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4025,7 +4044,7 @@
         <v>40</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>40</v>
@@ -4040,13 +4059,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4064,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4073,7 +4092,7 @@
         <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>63</v>
@@ -4093,7 +4112,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4116,13 +4135,13 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4173,7 +4192,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4202,7 +4221,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4228,10 +4247,10 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4282,7 +4301,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4303,7 +4322,7 @@
         <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4311,7 +4330,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4340,7 +4359,7 @@
         <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>100</v>
@@ -4393,7 +4412,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4414,7 +4433,7 @@
         <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4422,11 +4441,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4448,10 +4467,10 @@
         <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>100</v>
@@ -4506,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4535,7 +4554,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4558,13 +4577,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4615,7 +4634,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>51</v>
@@ -4644,7 +4663,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4667,13 +4686,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4724,7 +4743,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4753,7 +4772,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4776,13 +4795,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4833,7 +4852,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4862,7 +4881,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4885,13 +4904,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4942,7 +4961,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4971,7 +4990,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4997,10 +5016,10 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5051,7 +5070,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5072,7 +5091,7 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5080,7 +5099,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5109,7 +5128,7 @@
         <v>98</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>100</v>
@@ -5162,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5183,7 +5202,7 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5191,11 +5210,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5217,10 +5236,10 @@
         <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>100</v>
@@ -5275,7 +5294,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5304,7 +5323,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5330,10 +5349,10 @@
         <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5360,13 +5379,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5384,7 +5403,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5413,7 +5432,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5436,13 +5455,13 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5493,7 +5512,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5522,7 +5541,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5545,13 +5564,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5559,7 +5578,7 @@
         <v>40</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>40</v>
@@ -5604,7 +5623,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5633,7 +5652,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5659,10 +5678,10 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5713,7 +5732,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5734,7 +5753,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5742,7 +5761,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5771,7 +5790,7 @@
         <v>98</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>100</v>
@@ -5824,7 +5843,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5845,7 +5864,7 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5853,11 +5872,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5879,10 +5898,10 @@
         <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>100</v>
@@ -5937,7 +5956,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5966,7 +5985,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5989,13 +6008,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6007,7 +6026,7 @@
         <v>40</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>40</v>
@@ -6022,13 +6041,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6046,7 +6065,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>51</v>
@@ -6075,7 +6094,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6098,13 +6117,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6155,7 +6174,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>51</v>
@@ -6184,7 +6203,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6207,23 +6226,23 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>40</v>
@@ -6244,13 +6263,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6268,7 +6287,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6297,7 +6316,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6320,16 +6339,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6355,13 +6374,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6379,7 +6398,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6408,7 +6427,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6431,16 +6450,16 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6466,13 +6485,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6490,7 +6509,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6519,7 +6538,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6542,16 +6561,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6577,13 +6596,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6601,7 +6620,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6630,7 +6649,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6653,16 +6672,16 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6688,13 +6707,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6712,7 +6731,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6741,7 +6760,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6764,16 +6783,16 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6823,7 +6842,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6852,7 +6871,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6875,13 +6894,13 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6889,52 +6908,52 @@
         <v>40</v>
       </c>
       <c r="P52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6955,7 +6974,7 @@
         <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -6963,7 +6982,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6989,10 +7008,10 @@
         <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7043,7 +7062,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7064,7 +7083,7 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7072,7 +7091,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7101,7 +7120,7 @@
         <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>100</v>
@@ -7154,7 +7173,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7175,7 +7194,7 @@
         <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7183,11 +7202,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7209,10 +7228,10 @@
         <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>100</v>
@@ -7267,7 +7286,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7296,7 +7315,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7322,10 +7341,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7352,31 +7371,31 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>51</v>
@@ -7405,7 +7424,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7428,13 +7447,13 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7485,7 +7504,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>51</v>
@@ -7514,7 +7533,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7540,10 +7559,10 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7594,7 +7613,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-HealthcareAgentAuthority.xlsx
+++ b/output/StructureDefinition-PADI-HealthcareAgentAuthority.xlsx
@@ -1181,45 +1181,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.8046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.96484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.68359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
